--- a/public/files/plantillas/IRBRI20221102A1.xlsx
+++ b/public/files/plantillas/IRBRI20221102A1.xlsx
@@ -95,7 +95,7 @@
     <t>programa</t>
   </si>
   <si>
-    <t>mes-año</t>
+    <t>mes-year</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/files/plantillas/IRBRI20221102A1.xlsx
+++ b/public/files/plantillas/IRBRI20221102A1.xlsx
@@ -131,15 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,34 +419,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -474,13 +473,13 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -492,16 +491,16 @@
       <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -513,13 +512,13 @@
       <c r="T1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
